--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AR2_50_6_matched_error_tables_latest.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AR2_50_6_matched_error_tables_latest.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.6761249769361338</v>
+        <v>-0.2731398110005052</v>
       </c>
       <c r="C2">
-        <v>1.658016677504163</v>
+        <v>1.954904495510687</v>
       </c>
       <c r="D2">
-        <v>14.34022627921547</v>
+        <v>16.7369754246168</v>
       </c>
       <c r="E2">
-        <v>3.786849122848106</v>
+        <v>4.091084871353416</v>
       </c>
       <c r="F2">
-        <v>3.81801458346056</v>
+        <v>4.178015828355637</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.4331223073418028</v>
+        <v>-0.01488157163777362</v>
       </c>
       <c r="C3">
-        <v>1.391015390786923</v>
+        <v>1.752155569855608</v>
       </c>
       <c r="D3">
-        <v>7.402445324618098</v>
+        <v>10.88565705993317</v>
       </c>
       <c r="E3">
-        <v>2.72074352422607</v>
+        <v>3.29934191315983</v>
       </c>
       <c r="F3">
-        <v>2.755826438561535</v>
+        <v>3.380785024028695</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.6381434010701458</v>
+        <v>-0.6570990114281711</v>
       </c>
       <c r="C4">
-        <v>1.135899626340327</v>
+        <v>1.129967425434843</v>
       </c>
       <c r="D4">
-        <v>5.428515186837721</v>
+        <v>5.20882987611967</v>
       </c>
       <c r="E4">
-        <v>2.329917420604799</v>
+        <v>2.282286107419416</v>
       </c>
       <c r="F4">
-        <v>2.302226887453616</v>
+        <v>2.242426027718474</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.05886515282792959</v>
+        <v>-0.01990966418030321</v>
       </c>
       <c r="C5">
-        <v>0.7676428361822356</v>
+        <v>0.7630979043556427</v>
       </c>
       <c r="D5">
-        <v>2.25450493415372</v>
+        <v>2.160275983970295</v>
       </c>
       <c r="E5">
-        <v>1.501500893823817</v>
+        <v>1.469787734324346</v>
       </c>
       <c r="F5">
-        <v>1.543843883124821</v>
+        <v>1.509924799371146</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1029915751812242</v>
+        <v>-0.02640479156802359</v>
       </c>
       <c r="C6">
-        <v>0.6160421652639265</v>
+        <v>0.7054922130995549</v>
       </c>
       <c r="D6">
-        <v>0.8097474494653374</v>
+        <v>1.040078856359899</v>
       </c>
       <c r="E6">
-        <v>0.8998596832091864</v>
+        <v>1.01984256449704</v>
       </c>
       <c r="F6">
-        <v>0.9214588685685959</v>
+        <v>1.049057548473549</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.008851660240026565</v>
+        <v>-0.004386375610123202</v>
       </c>
       <c r="C7">
-        <v>0.6433248779217541</v>
+        <v>0.6094268367774349</v>
       </c>
       <c r="D7">
-        <v>0.9801617914881935</v>
+        <v>0.9227697331241523</v>
       </c>
       <c r="E7">
-        <v>0.9900312073304526</v>
+        <v>0.960609042807818</v>
       </c>
       <c r="F7">
-        <v>1.022458965226707</v>
+        <v>0.9901628142054374</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1608400222841087</v>
+        <v>0.1276921712949286</v>
       </c>
       <c r="C8">
-        <v>0.5423459674560881</v>
+        <v>0.531544694086506</v>
       </c>
       <c r="D8">
-        <v>0.6555283344914318</v>
+        <v>0.6230921363534133</v>
       </c>
       <c r="E8">
-        <v>0.8096470431561099</v>
+        <v>0.7893618538752765</v>
       </c>
       <c r="F8">
-        <v>0.8213613406084781</v>
+        <v>0.8045118408863187</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
